--- a/data/trans_dic/P21D_1_R-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P21D_1_R-Provincia-trans_dic.xlsx
@@ -855,10 +855,10 @@
       </c>
       <c r="C24" s="5" t="inlineStr"/>
       <c r="D24" s="5" t="n">
-        <v>0.01590478445652168</v>
+        <v>0.01437059767714469</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.006683132696140581</v>
+        <v>0.006388268501910685</v>
       </c>
     </row>
     <row r="25">
@@ -949,10 +949,10 @@
       </c>
       <c r="C30" s="5" t="inlineStr"/>
       <c r="D30" s="5" t="n">
-        <v>0.003032907023771108</v>
+        <v>0.002664166611066165</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>0.00174751727754155</v>
+        <v>0.001366514325174383</v>
       </c>
     </row>
     <row r="31">
@@ -1474,10 +1474,10 @@
       </c>
       <c r="C31" s="6" t="inlineStr"/>
       <c r="D31" s="6" t="n">
-        <v>5665</v>
+        <v>5119</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>4738</v>
+        <v>4529</v>
       </c>
     </row>
     <row r="32">
@@ -1602,10 +1602,10 @@
       </c>
       <c r="C39" s="6" t="inlineStr"/>
       <c r="D39" s="6" t="n">
-        <v>5147</v>
+        <v>4521</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>5706</v>
+        <v>4462</v>
       </c>
     </row>
     <row r="40">
